--- a/project/preprocessing/DataGenerator/statistics.xlsx
+++ b/project/preprocessing/DataGenerator/statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,75 @@
       <c r="N1" s="1" t="n">
         <v>50006645</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>50006655</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>50006724</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>50006734</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>50006728</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>50006646</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>50006662</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>50006673</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>50006747</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>50006679</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>50006678</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>50008388</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>50006683</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>50006684</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>50006688</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>50006686</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>50006689</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>50006690</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>50006691</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>50006692</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>50006693</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>50006717</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>50006694</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>50006718</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -517,6 +586,75 @@
       <c r="N2" t="n">
         <v>0.0004482772519494732</v>
       </c>
+      <c r="O2" t="n">
+        <v>0.0006590631113256104</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0008118840471881424</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0008070550108666846</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0008570763251744937</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0008655235004659501</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.000561441236807912</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.001168066248186017</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0007849240725123793</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0003936358679061687</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0003583556831178025</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.1286282558608123</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.06891221997728465</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0006809771141027355</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0004148715519790517</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.08085566333922777</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0004540267424639727</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0384195839811241</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.003252744785144668</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.002563953913984552</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.05267400917962285</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0004678051879116139</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0005669369624088798</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.001488789245870938</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -561,6 +699,75 @@
       <c r="N3" t="n">
         <v>0.0003660488590698775</v>
       </c>
+      <c r="O3" t="n">
+        <v>0.0004310556804270473</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0005490465730847618</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0006724985220634334</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0002837528589289472</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.000795450890972927</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0004544500190832412</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.000882207848206574</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0005061269696891146</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0003068846239756017</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0002598535606100043</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.05580976789156387</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.04409417996588735</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0005625292487322226</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0002899960030893059</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.04806419628028925</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0003707960583237274</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0231626024143352</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.003458655494121651</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.00214031642389393</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.06208008579484612</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0003523676149607549</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0005274267286427312</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0009629098779510806</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -605,6 +812,75 @@
       <c r="N4" t="n">
         <v>0.1048976596542072</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.08906881885410835</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.07090900410281664</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.07991448230803731</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1253947949008939</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.05476746493601733</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.08032566078714996</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.09256466860847369</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.09094013672618315</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0503535194181423</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.05357968209962193</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2492172796459826</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.1742308877032095</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.04482669135821815</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.06541322814969423</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.159526037009458</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.05902582665658421</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1483587030267296</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.04658401676154622</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.07398886095962995</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.15049717585701</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.09582250855723605</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.06135370622075578</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.08966985611975332</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -649,6 +925,75 @@
       <c r="N5" t="n">
         <v>0.08565607214851664</v>
       </c>
+      <c r="O5" t="n">
+        <v>0.05825484639667947</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.04795308620528023</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0665907162708851</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.04151454252419538</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.05033350192829036</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0650183771415485</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.069911511645726</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.05863911865642383</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.03925638421793472</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0388521009316936</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1081314400053734</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1114833932288644</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.03702962183408327</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.04572397076176975</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.09482935935446507</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.04820540689912716</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.08944328118188079</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.04953295636546877</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.06176381464322002</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.1773716816812865</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.07217694389111656</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.05707792348663694</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.05799611358802611</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -693,6 +1038,75 @@
       <c r="N6" t="n">
         <v>0.2608993434696038</v>
       </c>
+      <c r="O6" t="n">
+        <v>0.2375344594988865</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2102346178435296</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2040233108847194</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2833872256230967</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.175292348603765</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1970314921242014</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2259709133477814</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2304059860018139</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1971037343679178</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2055027429279748</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2713252696009744</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2041362095851902</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1542012756907734</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1949950892926545</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1813789336994331</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1958446889807068</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.2349505508807628</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1492779596207345</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1853384738927238</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1580220433410729</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.2271009213610437</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1881448785082401</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.232772439511396</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -737,6 +1151,75 @@
       <c r="N7" t="n">
         <v>0.2130420550982875</v>
       </c>
+      <c r="O7" t="n">
+        <v>0.1553577742474761</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.1421737462024864</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1700074631704713</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.09382120715809657</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1611007151192739</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1594841267181054</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.1706695262630968</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1485681068744282</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.1536651264211114</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1490156902225051</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1177237475406031</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.1306186154788007</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.1273797987795441</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1363019379062351</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.1078196914155993</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.1599430868842373</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.141648233352914</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.1587278035311832</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.1547153314606821</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.186240276008566</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.1710605441821229</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.1750329302235859</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.1505511152380557</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -781,6 +1264,75 @@
       <c r="N8" t="n">
         <v>0.1116218706133179</v>
       </c>
+      <c r="O8" t="n">
+        <v>0.1580091813912946</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1678594339425228</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1528343926443516</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1761427307327432</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.1556812892236656</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.1554459859901691</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1397998883586611</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.151870584993588</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.1658222088116965</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1726480946537363</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.04019632317337211</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.1495265073417985</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.1787529173936202</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.1851761700698496</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.1638966163474531</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.1513482860325678</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.1554515547221037</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.1496264695937122</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.178379106867289</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.06772372834554428</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.1491915203082791</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.1584778742187673</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.1672358479890854</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -825,6 +1377,75 @@
       <c r="N9" t="n">
         <v>0.0911468476429758</v>
       </c>
+      <c r="O9" t="n">
+        <v>0.1033448148256246</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.1135170068746685</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.1273530326804043</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.05831569716360082</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.1430773631843755</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.1258233750361567</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1055869552604115</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.09792768709677399</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.1292775642338352</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.1251918812560272</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.01744054952302002</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.09567604594037389</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.147660974572717</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.129438494713548</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.09742742576669193</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1236036176864214</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.09371945720410192</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.1590983754673216</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.1489058481219992</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.07981725582537753</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.1123763941526229</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.1474334402299494</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.1081637649001231</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -869,6 +1490,75 @@
       <c r="N10" t="n">
         <v>0.06186273038784556</v>
       </c>
+      <c r="O10" t="n">
+        <v>0.0851011145029768</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.1104032799651282</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.08381528559816662</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.1266875224080188</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.1005949324470683</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.09141195294190554</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0817241207882579</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.09513110640856311</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.1064148870383514</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.1069774120706555</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.008039259208169031</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.01300229256056102</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.1212962956546219</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.1035824834047581</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.04152046743516594</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.1118463730962214</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.04669456587819966</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.1036232878244818</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.07838425553723283</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.03009942252963853</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.08132047960169961</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.08499693237849376</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.09313874739957191</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -913,6 +1603,75 @@
       <c r="N11" t="n">
         <v>0.05051512602734227</v>
       </c>
+      <c r="O11" t="n">
+        <v>0.0556597967429819</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.07466157603676152</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.06984115696222662</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.04194252672488846</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.09245078683514017</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.07399200670594544</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.0617239483284012</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.06134149823641623</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.08296269536584784</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.07757226337126422</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.003488107550129054</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.008319648218029829</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.1001982484514187</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.07240435270664437</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.02468160935221676</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.09134306507325334</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.02815146735784817</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.1101830230855795</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.06543296608647582</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.03547432143703521</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.0612534965091699</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.07907343666318385</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.06023970158286124</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -957,6 +1716,75 @@
       <c r="N12" t="n">
         <v>0.0107587323165904</v>
       </c>
+      <c r="O12" t="n">
+        <v>0.03420652989527234</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.03634712670357927</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.02407746419443166</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.03880554472453106</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.03389226725472702</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.02788226140403236</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0284845827053239</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.03884018219708657</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.04183114815154228</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.04060101251808564</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.04786840462646322</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.0389990178585309</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.03193447415413185</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.03229515275740245</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.02637225626253302</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.01647069871253892</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.02451136425615071</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.02294226113343875</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1000,6 +1828,75 @@
       </c>
       <c r="N13" t="n">
         <v>0.00878523653029359</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0223725448529466</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.02458019150295394</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.02006314175337578</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.01284737885583181</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.03114835607623777</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.02256886989489451</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.02151361059747367</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.02504454176652161</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.03261221148173871</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.02944091070470815</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.03954226527570499</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.02726038758124703</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.02608035173596111</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.03433955471330351</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.02201481583033596</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.01240631992129822</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.02280315012318459</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.01483845341386649</v>
       </c>
     </row>
   </sheetData>

--- a/project/preprocessing/DataGenerator/statistics.xlsx
+++ b/project/preprocessing/DataGenerator/statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:BR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         <v>50006655</v>
       </c>
       <c r="P1" s="1" t="n">
-        <v>50006724</v>
+        <v>50006726</v>
       </c>
       <c r="Q1" s="1" t="n">
         <v>50006734</v>
@@ -507,40 +507,139 @@
         <v>50008388</v>
       </c>
       <c r="Z1" s="1" t="n">
+        <v>50006739</v>
+      </c>
+      <c r="AA1" s="1" t="n">
         <v>50006683</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>50006684</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>50006688</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>50006686</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>50006689</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>50006690</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>50006691</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>50006692</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>50006693</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AJ1" s="1" t="n">
         <v>50006717</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AK1" s="1" t="n">
+        <v>50006724</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>50006731</v>
+      </c>
+      <c r="AM1" s="1" t="n">
         <v>50006694</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
+        <v>50006666</v>
+      </c>
+      <c r="AO1" s="1" t="n">
         <v>50006718</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>50006685</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>50006704</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>50006737</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>50006740</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>50006687</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>50006639</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>50000233</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>50006392</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>50006656</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>50006653</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>50008348</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>50006649</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>50006677</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>50006749</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>50006748</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>50006751</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>50006743</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>50006750</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>50006741</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>50006643</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>50006644</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>50006680</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>50006657</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>50006705</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>50008488</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>50002707</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>50002708</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>50006634</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>50006682</v>
       </c>
     </row>
     <row r="2">
@@ -590,7 +689,7 @@
         <v>0.0006590631113256104</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0008118840471881424</v>
+        <v>0.0007042899102590666</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0008070550108666846</v>
@@ -620,40 +719,139 @@
         <v>0.1286282558608123</v>
       </c>
       <c r="Z2" t="n">
+        <v>0.0009022019540623838</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.06891221997728465</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>0.0006809771141027355</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>0.0004148715519790517</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.08085566333922777</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>0.0004540267424639727</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>0.0384195839811241</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>0.003252744785144668</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>0.002563953913984552</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>0.05267400917962285</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>0.0004678051879116139</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
+        <v>0.0008118840471881424</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0009813707073616461</v>
+      </c>
+      <c r="AM2" t="n">
         <v>0.0005669369624088798</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AN2" t="n">
+        <v>0.0002380786410513878</v>
+      </c>
+      <c r="AO2" t="n">
         <v>0.001488789245870938</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0003813476446482314</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.001147076000727617</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.00079165659848236</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0009588442625876599</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.001041120677310379</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0005334586490278809</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.004015526839355982</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.01202390201271949</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0006432731128302207</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0006157828392419668</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.08956039084616683</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.001081289048957399</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.001980247338626868</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0008828079302827352</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0006684929351367097</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.0003791165888863195</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.001333176353677335</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.001176405822435706</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.001112231084625448</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0002517201576251242</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.04206354260999149</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0001777527388673297</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.00049095812920862</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.0007165143100879761</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.05073324112600864</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.000151286521952214</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.0002289624526415212</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.1082438709575763</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.05758519959835339</v>
       </c>
     </row>
     <row r="3">
@@ -703,7 +901,7 @@
         <v>0.0004310556804270473</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0005490465730847618</v>
+        <v>0.0004510241596543011</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0006724985220634334</v>
@@ -733,40 +931,139 @@
         <v>0.05580976789156387</v>
       </c>
       <c r="Z3" t="n">
+        <v>0.0007119903552066298</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0.04409417996588735</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>0.0005625292487322226</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>0.0002899960030893059</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>0.04806419628028925</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>0.0003707960583237274</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>0.0231626024143352</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>0.003458655494121651</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>0.00214031642389393</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>0.06208008579484612</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>0.0003523676149607549</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
+        <v>0.0005490465730847618</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0003674865285054104</v>
+      </c>
+      <c r="AM3" t="n">
         <v>0.0005274267286427312</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AN3" t="n">
+        <v>0.0002460478097469384</v>
+      </c>
+      <c r="AO3" t="n">
         <v>0.0009629098779510806</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0003211106571253571</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0006297341713002549</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0007880905021688363</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0005297911792518223</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0007998192009215428</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0003555174885618973</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.008700997415949928</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.01087154206533227</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0003430384458609056</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0004110490850427476</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.07011205642463192</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.0006678292025420256</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.001931558403237848</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.0004754925339997191</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.000578997307007293</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0003336138785384167</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0007229046123236115</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.0005692334849716596</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0006022230819258718</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.0002145796790440572</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.04712563189913802</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>9.240922289392691e-05</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.000458504029418665</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.000357776230639057</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.08719777044751381</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.0007016531453938793</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.0007935275402383439</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.0606077133875984</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.02450433939696655</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +1113,7 @@
         <v>0.08906881885410835</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07090900410281664</v>
+        <v>0.06538385173588215</v>
       </c>
       <c r="Q4" t="n">
         <v>0.07991448230803731</v>
@@ -846,40 +1143,139 @@
         <v>0.2492172796459826</v>
       </c>
       <c r="Z4" t="n">
+        <v>0.09134866781173541</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0.1742308877032095</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>0.04482669135821815</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>0.06541322814969423</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>0.159526037009458</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>0.05902582665658421</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>0.1483587030267296</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>0.04658401676154622</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>0.07398886095962995</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>0.15049717585701</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>0.09582250855723605</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
+        <v>0.07090900410281664</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.1351589175986514</v>
+      </c>
+      <c r="AM4" t="n">
         <v>0.06135370622075578</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AN4" t="n">
+        <v>0.05660527658126504</v>
+      </c>
+      <c r="AO4" t="n">
         <v>0.08966985611975332</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.03974058302351401</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.1036203633973872</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.05304205160505528</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.09621824176042881</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.04310244389895773</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.1126461925362378</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.05883982428726899</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.07043371423202757</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.1231872249450217</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.08067051316520202</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.2190211315492176</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.07939782723909997</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.06471808772701934</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.09701641099588165</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.07246548726154053</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.07208913752438781</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.1110356838320307</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.115994819978573</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.09877072066307083</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.06822071164847131</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.1491344116129618</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.0680808165667174</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.06500458216122044</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.1016270830390054</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.105694272709615</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.0103739783271884</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.01946189931582297</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.2953175695053943</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.4292716205989535</v>
       </c>
     </row>
     <row r="5">
@@ -929,7 +1325,7 @@
         <v>0.05825484639667947</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04795308620528023</v>
+        <v>0.04187153096271128</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0665907162708851</v>
@@ -959,40 +1355,139 @@
         <v>0.1081314400053734</v>
       </c>
       <c r="Z5" t="n">
+        <v>0.0720895916375201</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0.1114833932288644</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>0.03702962183408327</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>0.04572397076176975</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>0.09482935935446507</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>0.04820540689912716</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>0.08944328118188079</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>0.04953295636546877</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>0.06176381464322002</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>0.1773716816812865</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>0.07217694389111656</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
+        <v>0.04795308620528023</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.05061194618128501</v>
+      </c>
+      <c r="AM5" t="n">
         <v>0.05707792348663694</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AN5" t="n">
+        <v>0.05850001605114061</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0.05799611358802611</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.03346323206216917</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.0568866261978223</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.05280311837939515</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0531635613381315</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.03311255168429678</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.07507178211380001</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.1274963857944442</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.06368341045037286</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.06569208840259923</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.05384940682547252</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.1714599700635709</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.04903794013246009</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.06312684468864881</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.05225437778885361</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.06276404696307344</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.06343678297129819</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.06020824458315316</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.05612700511661399</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.05347990055662302</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.0581549707730878</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.1670818230963166</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.03539352132070386</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.06070754526386798</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.05074532942136693</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.1816620567658775</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.04811356907139969</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.06745015575383777</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0.1653536819458353</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0.1826687683295518</v>
       </c>
     </row>
     <row r="6">
@@ -1042,7 +1537,7 @@
         <v>0.2375344594988865</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2102346178435296</v>
+        <v>0.1969711126130067</v>
       </c>
       <c r="Q6" t="n">
         <v>0.2040233108847194</v>
@@ -1072,40 +1567,139 @@
         <v>0.2713252696009744</v>
       </c>
       <c r="Z6" t="n">
+        <v>0.2526185680860121</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0.2041362095851902</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>0.1542012756907734</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>0.1949950892926545</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>0.1813789336994331</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>0.1958446889807068</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>0.2349505508807628</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>0.1492779596207345</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>0.1853384738927238</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>0.1580220433410729</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>0.2271009213610437</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
+        <v>0.2102346178435296</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.2588753877342178</v>
+      </c>
+      <c r="AM6" t="n">
         <v>0.1881448785082401</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AN6" t="n">
+        <v>0.150292681617218</v>
+      </c>
+      <c r="AO6" t="n">
         <v>0.232772439511396</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1465220350899206</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.2550361297391148</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1708881834137115</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.2448404735681681</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1318060691807262</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.2463443311142373</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1228117553310124</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.1532312557823598</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.2825586896381537</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.2530961114845733</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.1504155436597959</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.2154863685919208</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.1870434149698093</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.2286948682147908</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.197475166943374</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.1831746576249309</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.2460688373128583</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.3029865357703933</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.2483989379635179</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.1887523677452941</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.1663422328159791</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.2447710532461163</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.1820521096145877</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.2648753502968379</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.1437442143349376</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.04482049368279638</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.05701192323161978</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.1457258426650135</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0.1308754731449677</v>
       </c>
     </row>
     <row r="7">
@@ -1155,7 +1749,7 @@
         <v>0.1553577742474761</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1421737462024864</v>
+        <v>0.126139433844474</v>
       </c>
       <c r="Q7" t="n">
         <v>0.1700074631704713</v>
@@ -1185,40 +1779,139 @@
         <v>0.1177237475406031</v>
       </c>
       <c r="Z7" t="n">
+        <v>0.199358894329011</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0.1306186154788007</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>0.1273797987795441</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>0.1363019379062351</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>0.1078196914155993</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>0.1599430868842373</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>0.141648233352914</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>0.1587278035311832</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>0.1547153314606821</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>0.186240276008566</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>0.1710605441821229</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
+        <v>0.1421737462024864</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.09693912487942452</v>
+      </c>
+      <c r="AM7" t="n">
         <v>0.1750329302235859</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AN7" t="n">
+        <v>0.1553234047775361</v>
+      </c>
+      <c r="AO7" t="n">
         <v>0.1505511152380557</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.1233776781667799</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.1400124888943804</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.1701184005027061</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.1352819517010935</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.101257257901247</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.1641733957801419</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.2661132171525457</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.1385457101363086</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.1506801571909451</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.1689474250072945</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.1177523119827771</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.1330893805261216</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.1824445224129221</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.1231782120096677</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.171037843261046</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.1611894856928138</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.1334289323028501</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.1466076402945526</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.1344968469550366</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.1609025787672894</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.1863605000094435</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.12725037578343</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.1700178097814688</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.1322598908132997</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.2470604031310431</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.2078733780433792</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.1975893020200833</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.08159455151847757</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.05569168875077708</v>
       </c>
     </row>
     <row r="8">
@@ -1268,7 +1961,7 @@
         <v>0.1580091813912946</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1678594339425228</v>
+        <v>0.1789156373926678</v>
       </c>
       <c r="Q8" t="n">
         <v>0.1528343926443516</v>
@@ -1298,40 +1991,139 @@
         <v>0.04019632317337211</v>
       </c>
       <c r="Z8" t="n">
+        <v>0.1290158899051932</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0.1495265073417985</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>0.1787529173936202</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>0.1851761700698496</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>0.1638966163474531</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>0.1513482860325678</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>0.1554515547221037</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>0.1496264695937122</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>0.178379106867289</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>0.06772372834554428</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>0.1491915203082791</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
+        <v>0.1678594339425228</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.1613220809973938</v>
+      </c>
+      <c r="AM8" t="n">
         <v>0.1584778742187673</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AN8" t="n">
+        <v>0.1520783398603563</v>
+      </c>
+      <c r="AO8" t="n">
         <v>0.1672358479890854</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.1803317939415668</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.1668632027055739</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.1484951496585438</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.1690511088210833</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.1840704155355067</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.138417356929155</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.09023677234939766</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.1837831453206983</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.1407968758565197</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.1647279838039017</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.08468051242679764</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.1456656821644307</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.1421277819247171</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.1683383589411742</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.1341681237317832</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.1370830962730028</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.1682676535722094</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.1560518821077837</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.1683398857381947</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.1568824553381031</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.08603907274663969</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.2028559930232502</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.1546559068731816</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.1747126286569152</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.05918879329236127</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.0599534445399913</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.06056086244386521</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0.07059383402133358</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.06282020993871969</v>
       </c>
     </row>
     <row r="9">
@@ -1381,7 +2173,7 @@
         <v>0.1033448148256246</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1135170068746685</v>
+        <v>0.1145767869574599</v>
       </c>
       <c r="Q9" t="n">
         <v>0.1273530326804043</v>
@@ -1411,40 +2203,139 @@
         <v>0.01744054952302002</v>
       </c>
       <c r="Z9" t="n">
+        <v>0.1018154182301254</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0.09567604594037389</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>0.147660974572717</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>0.129438494713548</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>0.09742742576669193</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>0.1236036176864214</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>0.09371945720410192</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>0.1590983754673216</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>0.1489058481219992</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
         <v>0.07981725582537753</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>0.1123763941526229</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
+        <v>0.1135170068746685</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.06040906975548658</v>
+      </c>
+      <c r="AM9" t="n">
         <v>0.1474334402299494</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AN9" t="n">
+        <v>0.1571688340766135</v>
+      </c>
+      <c r="AO9" t="n">
         <v>0.1081637649001231</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.151846908367786</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.09160636314389517</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.147826238407392</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.09340597820802199</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.1414082496634683</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.09224668340930207</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.1955284958727096</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.1661695340779934</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.07508279222706903</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.1099596849871351</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.06629185970762752</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.08996650474857863</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.1386332435121995</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.0906693631950698</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.1162061380813804</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.1206299718090281</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.09124183948859803</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.07550962006009203</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.09114847283237421</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.1337349667650686</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.09639334729353458</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.1054597796585615</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.1444325946675996</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.08723904721210307</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.101730752777133</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.2780586293864941</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.2098890523549459</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.03952677247632386</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.02673200329362227</v>
       </c>
     </row>
     <row r="10">
@@ -1494,7 +2385,7 @@
         <v>0.0851011145029768</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1104032799651282</v>
+        <v>0.125299844476961</v>
       </c>
       <c r="Q10" t="n">
         <v>0.08381528559816662</v>
@@ -1524,40 +2415,139 @@
         <v>0.008039259208169031</v>
       </c>
       <c r="Z10" t="n">
+        <v>0.06225241480558383</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0.01300229256056102</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>0.1212962956546219</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>0.1035824834047581</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>0.04152046743516594</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>0.1118463730962214</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>0.04669456587819966</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AG10" t="n">
         <v>0.1036232878244818</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
         <v>0.07838425553723283</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AI10" t="n">
         <v>0.03009942252963853</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
         <v>0.08132047960169961</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
+        <v>0.1104032799651282</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.1367875803255037</v>
+      </c>
+      <c r="AM10" t="n">
         <v>0.08499693237849376</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AN10" t="n">
+        <v>0.09386596021478297</v>
+      </c>
+      <c r="AO10" t="n">
         <v>0.09313874739957191</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.1238507039224075</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.09803785204991472</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.08957208375421573</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.1009459154326513</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.1470064568393159</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.07755966506883426</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.03072085706785591</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.07762268601427921</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.07687139128603204</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.08200475993611525</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.01722314281952267</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.1147715738885019</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.08398051066124571</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.1052405071517537</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.08784100249733512</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.101011445137679</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.1024651800490751</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.07793771137467551</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.1013659430871261</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.08780584607809076</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.02804235619525323</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.1076850422300976</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.08346508479599174</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.1035378143534417</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.0084555377919312</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.04513456579736358</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.05575262671404829</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.02117813839369729</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0.02094004136146519</v>
       </c>
     </row>
     <row r="11">
@@ -1607,7 +2597,7 @@
         <v>0.0556597967429819</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07466157603676152</v>
+        <v>0.08024146908373013</v>
       </c>
       <c r="Q11" t="n">
         <v>0.06984115696222662</v>
@@ -1637,40 +2627,139 @@
         <v>0.003488107550129054</v>
       </c>
       <c r="Z11" t="n">
+        <v>0.04912771329115667</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0.008319648218029829</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>0.1001982484514187</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>0.07240435270664437</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>0.02468160935221676</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>0.09134306507325334</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>0.02815146735784817</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AG11" t="n">
         <v>0.1101830230855795</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AH11" t="n">
         <v>0.06543296608647582</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
         <v>0.03547432143703521</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
         <v>0.0612534965091699</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
+        <v>0.07466157603676152</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.05122181929763893</v>
+      </c>
+      <c r="AM11" t="n">
         <v>0.07907343666318385</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AN11" t="n">
+        <v>0.09700792065448488</v>
+      </c>
+      <c r="AO11" t="n">
         <v>0.06023970158286124</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.104287469662091</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.05382187882716432</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.08916859734573648</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.05577574759991825</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.1129346380318565</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.05168876236090932</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.06656713020651898</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.0701833976470881</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.0409932298925197</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.05474004696588348</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.01348308051989202</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.070885586734053</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.08191565665146446</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.05668398947093326</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.07608113895830013</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.08888774845791933</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.05556095489972459</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.03771211788519224</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.05488509671423986</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.07485038324856053</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.03141708172074201</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.05598277209787621</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.0779477422166714</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.05169941259572684</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.01453295762357892</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.2093300159792833</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0.1932248900543198</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.01185802512874988</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0.008910655586622868</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +2809,7 @@
         <v>0.03420652989527234</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03634712670357927</v>
+        <v>0.04233431183501938</v>
       </c>
       <c r="Q12" t="n">
         <v>0.02407746419443166</v>
@@ -1750,40 +2839,139 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
+        <v>0.02278076354214445</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>0.04786840462646322</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>0.0389990178585309</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>0</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>0.03193447415413185</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
         <v>0</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AG12" t="n">
         <v>0.03229515275740245</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
         <v>0.02637225626253302</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
         <v>0.01647069871253892</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AK12" t="n">
+        <v>0.03634712670357927</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.03443179860820596</v>
+      </c>
+      <c r="AM12" t="n">
         <v>0.02451136425615071</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AN12" t="n">
+        <v>0.03868920110332821</v>
+      </c>
+      <c r="AO12" t="n">
         <v>0.02294226113343875</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.05204938208350716</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.0208770025443142</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.03833956712332822</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.03209493796173067</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.05851107041864276</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.02458107492930439</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.009147621314654929</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.0280710008596544</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.02814326932599457</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.018576799009967</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.06178819500322075</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.02637328984981658</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.04976272263227648</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.0432519984397725</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.0381839480171914</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.01923601303990926</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.01976381172830275</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.03075000004753017</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.03791157369492942</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.03437814338262769</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.03142213950384495</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.02149572066552461</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.01693695000340326</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0.03091007645267523</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1833,7 +3021,7 @@
         <v>0.0223725448529466</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02458019150295394</v>
+        <v>0.02711070702817433</v>
       </c>
       <c r="Q13" t="n">
         <v>0.02006314175337578</v>
@@ -1863,40 +3051,139 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
+        <v>0.01797788605224871</v>
+      </c>
+      <c r="AA13" t="n">
         <v>0</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>0.03954226527570499</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>0.02726038758124703</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>0</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>0.02608035173596111</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>0</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
         <v>0.03433955471330351</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>0.02201481583033596</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
         <v>0.01240631992129822</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
+        <v>0.02458019150295394</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.01289341738632532</v>
+      </c>
+      <c r="AM13" t="n">
         <v>0.02280315012318459</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AN13" t="n">
+        <v>0.03998423861247612</v>
+      </c>
+      <c r="AO13" t="n">
         <v>0.01483845341386649</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.04382775537848412</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.01146128232840509</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.03816686270926448</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.01773344816693301</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.04494990696775054</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.01638177962048821</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.01982141636828565</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.02538070140116589</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.01500796967645392</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.0124004368901704</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.03816182272011322</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.02572484186029219</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.02680288913531644</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.0374615636202506</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.03360099602432404</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.01043057995359039</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.009563216376413667</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.01664974127573545</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.03231784610443577</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0.01787234072885791</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.02934502296293858</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0.01073343240505161</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0.07855203550135455</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0.1071267216659021</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
